--- a/lean-canvas.xlsx
+++ b/lean-canvas.xlsx
@@ -19,9 +19,13 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Lean Canvas Example'!$A$1:$Y$72</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Value Proposition Canvas'!$A$1:$Y$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Business Model Canvas'!$A$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'Business Model Canvas'!$A$1:$Y$72</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Lean Canvas'!$A$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Lean Canvas'!$A$1:$Y$72</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Value Proposition Canvas'!$A$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Value Proposition Canvas'!$A$1:$Y$72</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Lean Canvas Example'!$A$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Lean Canvas Example'!$A$1:$Y$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -998,7 +1002,7 @@
     <numFmt numFmtId="165" formatCode="&quot;JJ &quot;MMMM\ AAAA;@"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1142,6 +1146,12 @@
       <sz val="36"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -1493,9 +1503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,7 +1515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="1348560"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,9 +1587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1589,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="3268800"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,9 +1671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1673,7 +1683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="7124400"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1757,7 +1767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="5196600"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,9 +1844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1846,7 +1856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="1341000"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1918,9 +1928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1930,7 +1940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="3261240"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2002,9 +2012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2014,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="7116840"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2086,9 +2096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2098,7 +2108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="5189040"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,9 +2180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:colOff>529560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2182,7 +2192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1060920" y="1817640"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1117800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,7 +2237,7 @@
               </a:uFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Au Sénégal, plus encore que dans les pays occidentaux, tout le monde n’a pas de moyen de locomotion et le coût des moyens de transports est élevé</a:t>
+            <a:t>Au Sénégal, plus encore que dans les pays occidentaux, tout le monde n’a pas de moyen de locomotion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -2254,9 +2264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:colOff>556200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2266,7 +2276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4430160" y="1791720"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1270800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2311,7 +2321,7 @@
               </a:uFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Permettre aux personnes ayant une voiture et faisant un trajet de proposer de partager le trajet et les frais avec d’autres personnes</a:t>
+            <a:t>Permettre aux personnes ayant une voiture de proposer de partager des trajets et les frais avec d’autres personnes</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -2338,9 +2348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>437040</xdr:colOff>
+      <xdr:colOff>436680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2350,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7653600" y="1855440"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2422,9 +2432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>569880</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:colOff>569520</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2434,7 +2444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1100880" y="5629320"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1207080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2479,7 +2489,1565 @@
               </a:uFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Pas d’alternatives connues pour ce pays</a:t>
+            <a:t>Andando covoiturage </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+              <a:hlinkClick r:id="rId1"/>
+            </a:rPr>
+            <a:t>http://www.andando.sn/</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+              <a:hlinkClick r:id="rId2"/>
+            </a:rPr>
+            <a:t>https://play.google.com/store/apps/details?id=dev.cityway.andando&amp;hl=fr</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11009520" y="5718240"/>
+          <a:ext cx="1975320" cy="1713600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Web et store d’application</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14352120" y="1905840"/>
+          <a:ext cx="1975320" cy="953280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Toutes les personnes non véhiculée voulant effectuer des déplacements</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14378760" y="3036960"/>
+          <a:ext cx="1975320" cy="902160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Toutes les personnes véhiculées voulant rentabiliser leurs déplacements</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14405040" y="5718240"/>
+          <a:ext cx="1975320" cy="1713600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Personne habituellement véhiculées devant faire un trajet sans leur véhicule (départ aeroport / gare, récupération de véhicule au garage ...)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719840" y="5680080"/>
+          <a:ext cx="1975320" cy="1713600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Un taxi convivial à prix abordable</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>174240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127520" y="7039800"/>
+          <a:ext cx="1975320" cy="533520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Arrangement avec le voisinage, famille</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101240" y="3125520"/>
+          <a:ext cx="1975320" cy="673560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Coût des moyens de transport élevés</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>318960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1154520" y="4015800"/>
+          <a:ext cx="1975320" cy="889200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Un véhicule et un trajet représentent un coût élevé pour son propriétaire</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4377600" y="3202560"/>
+          <a:ext cx="1975320" cy="851400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Permettre aux personnes non véhiculées de réduire leur coût de transport</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4390920" y="4168080"/>
+          <a:ext cx="1975320" cy="876960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Permettre aux propriétaires de véhicules de rentabiliser leur trajet</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357480</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9245520" y="9429120"/>
+          <a:ext cx="1975320" cy="812880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Réductions des coûts de véhicule pour les propriétaires</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>834840</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11394360" y="9453960"/>
+          <a:ext cx="1975320" cy="851400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Réduction du coût de transport pour les personnes non véhiculées</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>463320</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13529880" y="9403560"/>
+          <a:ext cx="1975320" cy="851040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Accroissement de la facilité de déplacement</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437040</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9325080" y="10432800"/>
+          <a:ext cx="1975320" cy="838440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Moins d’encombrement des routes et baisse de la pollution</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4576680" y="5616360"/>
+          <a:ext cx="1975320" cy="1713600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>150 trajets dans les 3 premiers mois</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>400 trajets dans les 6 premiers mois</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>2000 téléchargement la première année</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>199440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11062800" y="1944000"/>
+          <a:ext cx="1975320" cy="851400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Application simple et intuitive</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11102760" y="2948040"/>
+          <a:ext cx="1975320" cy="864000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="36720" rIns="0" tIns="27360" bIns="0"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Prix abordable indexés à la distance parcourue</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -2511,19 +4079,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="1341000"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2595,19 +4163,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="3261240"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,19 +4247,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="7183440"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2763,19 +4331,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="5189040"/>
-          <a:ext cx="1975680" cy="1780920"/>
+          <a:ext cx="1975320" cy="1780560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2847,19 +4415,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10006200" y="9968040"/>
-          <a:ext cx="7579800" cy="1573920"/>
+          <a:ext cx="7579440" cy="1573560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,7 +4437,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
@@ -2903,19 +4470,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>31320</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="807840" y="9968040"/>
-          <a:ext cx="8416080" cy="1573920"/>
+          <a:ext cx="8415720" cy="1573560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,7 +4492,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
@@ -2959,19 +4525,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>31320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="807840" y="1341000"/>
-          <a:ext cx="8416080" cy="8282880"/>
+          <a:ext cx="8415720" cy="8282520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2979,7 +4545,7 @@
         <a:noFill/>
         <a:ln w="3240">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -3015,19 +4581,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9642240" y="1394640"/>
-          <a:ext cx="7889760" cy="8099640"/>
+          <a:ext cx="7889400" cy="8099280"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3037,7 +4603,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
@@ -3077,7 +4642,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 1"/>
+        <xdr:cNvPr id="37" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3092,7 +4657,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3125,7 +4689,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 1"/>
+        <xdr:cNvPr id="38" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3140,7 +4704,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3173,7 +4736,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line 1"/>
+        <xdr:cNvPr id="39" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3188,7 +4751,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3221,7 +4783,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 1"/>
+        <xdr:cNvPr id="40" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3236,7 +4798,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3269,7 +4830,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 1"/>
+        <xdr:cNvPr id="41" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3284,7 +4845,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3311,19 +4871,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9224280" y="4886640"/>
-          <a:ext cx="355680" cy="1207080"/>
+          <a:ext cx="355320" cy="1206720"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst>
@@ -3336,7 +4896,6 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
@@ -3370,27 +4929,28 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>618480</xdr:colOff>
+      <xdr:colOff>618120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12975120" y="4977360"/>
-          <a:ext cx="1013760" cy="999720"/>
+          <a:ext cx="1013400" cy="999360"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
           <a:avLst>
             <a:gd name="adj" fmla="val 4653"/>
           </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3417,27 +4977,28 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
+      <xdr:colOff>360000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4516920" y="5011200"/>
-          <a:ext cx="857160" cy="917640"/>
+          <a:ext cx="856800" cy="917280"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst>
             <a:gd name="adj" fmla="val 25000"/>
           </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3464,23 +5025,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3961440" y="1365480"/>
-          <a:ext cx="2090520" cy="648000"/>
+          <a:ext cx="2090160" cy="647640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3544,19 +5106,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>321120</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12444120" y="1374840"/>
-          <a:ext cx="2083320" cy="655560"/>
+          <a:ext cx="2082960" cy="655200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3630,19 +5192,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="1341000"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3714,19 +5276,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="3261240"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3798,19 +5360,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="7116840"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3882,19 +5444,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18384480" y="5189040"/>
-          <a:ext cx="1975680" cy="1714320"/>
+          <a:ext cx="1975320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3966,19 +5528,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1049040" y="1798200"/>
-          <a:ext cx="1975680" cy="776880"/>
+          <a:ext cx="1975320" cy="776520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4050,19 +5612,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>746280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1277640" y="2537280"/>
-          <a:ext cx="1975680" cy="761760"/>
+          <a:ext cx="1975320" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4134,19 +5696,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1483200" y="3154320"/>
-          <a:ext cx="1988640" cy="761760"/>
+          <a:ext cx="1988280" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4218,19 +5780,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1049040" y="5775840"/>
-          <a:ext cx="1975680" cy="1713960"/>
+          <a:ext cx="1975320" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4302,19 +5864,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>479880</xdr:colOff>
+      <xdr:colOff>479520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4353480" y="1820880"/>
-          <a:ext cx="1975680" cy="761760"/>
+          <a:ext cx="1975320" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4386,19 +5948,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>723600</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4597200" y="2468880"/>
-          <a:ext cx="1975680" cy="776520"/>
+          <a:ext cx="1975320" cy="776160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4470,19 +6032,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4810680" y="3154320"/>
-          <a:ext cx="1988640" cy="761760"/>
+          <a:ext cx="1988280" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4554,19 +6116,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="58" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7749360" y="1813320"/>
-          <a:ext cx="1976040" cy="1714320"/>
+          <a:ext cx="1975680" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4638,19 +6200,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7764480" y="5608440"/>
-          <a:ext cx="1968480" cy="1713960"/>
+          <a:ext cx="1968120" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4772,19 +6334,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11076840" y="1782720"/>
-          <a:ext cx="1976040" cy="761760"/>
+          <a:ext cx="1975680" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4856,19 +6418,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11076840" y="2636280"/>
-          <a:ext cx="1976040" cy="761760"/>
+          <a:ext cx="1975680" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6689,7 +8251,7 @@
   <dimension ref="B2:X70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N39" activeCellId="0" sqref="N39"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
